--- a/src/main/resources/data/raw data/2023/강남구/총무과/2023년 5월 업무추진비 집행내역 공개-총무과.xlsx
+++ b/src/main/resources/data/raw data/2023/강남구/총무과/2023년 5월 업무추진비 집행내역 공개-총무과.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr codeName="현재_통합_문서"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IDE\sts-4.23.1.RELEASE\work\FreeMeal\src\main\resources\data\raw data\강남구\총무과\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F394D71A-B2DC-4E50-9776-C76A3BB3D454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="구청장" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">시책추진업무추진비!$A$4:$H$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">행정국장!$A$4:$H$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1078,7 +1077,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1566,6 +1565,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1625,30 +1642,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="1"/>
+    <cellStyle name="쉼표 [0] 3" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1926,11 +1925,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -1947,29 +1945,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1"/>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -2472,12 +2470,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H23" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I64">
+  <autoFilter ref="A4:H23">
+    <sortState ref="A5:I64">
       <sortCondition ref="B4:B49"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H47">
+  <sortState ref="A5:H47">
     <sortCondition ref="B5:B47"/>
     <sortCondition ref="C5:C47"/>
   </sortState>
@@ -2492,8 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2513,28 +2510,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -3331,8 +3328,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I42">
+  <autoFilter ref="A4:H32"/>
+  <sortState ref="A5:I42">
     <sortCondition ref="B4"/>
   </sortState>
   <mergeCells count="2">
@@ -3346,12 +3343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3367,28 +3363,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -3417,9 +3413,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1">
-      <c r="A5" s="41">
-        <v>1</v>
-      </c>
+      <c r="A5" s="41"/>
       <c r="B5" s="40" t="s">
         <v>180</v>
       </c>
@@ -3443,9 +3437,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1">
-      <c r="A6" s="22">
-        <v>2</v>
-      </c>
+      <c r="A6" s="22"/>
       <c r="B6" s="40" t="s">
         <v>182</v>
       </c>
@@ -3469,9 +3461,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
+      <c r="A7" s="22"/>
       <c r="B7" s="40" t="s">
         <v>182</v>
       </c>
@@ -3495,9 +3485,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="11" customFormat="1">
-      <c r="A8" s="22">
-        <v>4</v>
-      </c>
+      <c r="A8" s="22"/>
       <c r="B8" s="40" t="s">
         <v>71</v>
       </c>
@@ -3532,11 +3520,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
@@ -3553,1254 +3540,1254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1"/>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="69">
+      <c r="A5" s="75">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="59">
         <v>40000</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="69">
+      <c r="A6" s="75">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="59">
         <v>133000</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="69">
+      <c r="A7" s="75">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="59">
         <v>238000</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="69">
+      <c r="A8" s="75">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="64">
         <v>28000</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="69">
+      <c r="A9" s="75">
         <v>5</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="64">
         <v>105000</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="69">
+      <c r="A10" s="75">
         <v>6</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="59">
         <v>54000</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="69">
+      <c r="A11" s="75">
         <v>7</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="59">
         <v>287000</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="69">
+      <c r="A12" s="75">
         <v>8</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="59">
         <v>24000</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="69">
+      <c r="A13" s="75">
         <v>9</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="59">
         <v>30000</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="69">
+      <c r="A14" s="75">
         <v>10</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="59">
         <v>171000</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="69">
+      <c r="A15" s="75">
         <v>11</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="59">
         <v>251000</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="69">
+      <c r="A16" s="75">
         <v>12</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="59">
         <v>56000</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="69">
+      <c r="A17" s="75">
         <v>13</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="59">
         <v>282000</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="69">
+      <c r="A18" s="75">
         <v>14</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="59">
         <v>100000</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="69">
+      <c r="A19" s="75">
         <v>15</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="59">
         <v>268000</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="69">
+      <c r="A20" s="75">
         <v>16</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="59">
         <v>22000</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="69">
+      <c r="A21" s="75">
         <v>17</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="59">
         <v>173000</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="69">
+      <c r="A22" s="75">
         <v>18</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="59">
         <v>90000</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="69">
+      <c r="A23" s="75">
         <v>19</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="59">
         <v>33000</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="69">
+      <c r="A24" s="75">
         <v>20</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="59">
         <v>60500</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H24" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="69">
+      <c r="A25" s="75">
         <v>21</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="59">
         <v>125000</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="69">
+      <c r="A26" s="75">
         <v>22</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="59">
         <v>185000</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="69">
+      <c r="A27" s="75">
         <v>23</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="59">
         <v>100000</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1">
-      <c r="A28" s="69">
+      <c r="A28" s="75">
         <v>24</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" customHeight="1">
-      <c r="A29" s="69">
+      <c r="A29" s="75">
         <v>27</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1">
-      <c r="A30" s="69">
+      <c r="A30" s="75">
         <v>28</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="71">
         <v>36000</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" customHeight="1">
-      <c r="A31" s="69">
+      <c r="A31" s="75">
         <v>29</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="71">
         <v>130000</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="24" customHeight="1">
-      <c r="A32" s="69">
+      <c r="A32" s="75">
         <v>30</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="71">
         <v>171000</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="54" t="s">
+      <c r="H32" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="24" customHeight="1">
-      <c r="A33" s="69">
+      <c r="A33" s="75">
         <v>31</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="71">
         <v>127000</v>
       </c>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="24" customHeight="1">
-      <c r="A34" s="69">
+      <c r="A34" s="75">
         <v>32</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="71">
         <v>60500</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="24" customHeight="1">
-      <c r="A35" s="69">
+      <c r="A35" s="75">
         <v>33</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="71">
         <v>45000</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="24" customHeight="1">
-      <c r="A36" s="69">
+      <c r="A36" s="75">
         <v>34</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="71">
         <v>33500</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="24" customHeight="1">
-      <c r="A37" s="69">
+      <c r="A37" s="75">
         <v>35</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="71">
         <v>262000</v>
       </c>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="24" customHeight="1">
-      <c r="A38" s="69">
+      <c r="A38" s="75">
         <v>36</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="71">
         <v>287000</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="54" t="s">
+      <c r="H38" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="24" customHeight="1">
-      <c r="A39" s="69">
+      <c r="A39" s="75">
         <v>37</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="71">
         <v>150000</v>
       </c>
-      <c r="G39" s="64" t="s">
+      <c r="G39" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="H39" s="54" t="s">
+      <c r="H39" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="24" customHeight="1">
-      <c r="A40" s="69">
+      <c r="A40" s="75">
         <v>38</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="F40" s="65">
+      <c r="F40" s="71">
         <v>149500</v>
       </c>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="24" customHeight="1">
-      <c r="A41" s="69">
+      <c r="A41" s="75">
         <v>39</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="71">
         <v>70000</v>
       </c>
-      <c r="G41" s="64" t="s">
+      <c r="G41" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="H41" s="54" t="s">
+      <c r="H41" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24" customHeight="1">
-      <c r="A42" s="69">
+      <c r="A42" s="75">
         <v>40</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="F42" s="65">
+      <c r="F42" s="71">
         <v>34000</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="24" customHeight="1">
-      <c r="A43" s="69">
+      <c r="A43" s="75">
         <v>41</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="71">
         <v>93500</v>
       </c>
-      <c r="G43" s="64" t="s">
+      <c r="G43" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="24" customHeight="1">
-      <c r="A44" s="69">
+      <c r="A44" s="75">
         <v>42</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="F44" s="65">
+      <c r="F44" s="71">
         <v>92500</v>
       </c>
-      <c r="G44" s="64" t="s">
+      <c r="G44" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="H44" s="54" t="s">
+      <c r="H44" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="24" customHeight="1">
-      <c r="A45" s="69">
+      <c r="A45" s="75">
         <v>43</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="71">
         <v>35000</v>
       </c>
-      <c r="G45" s="64" t="s">
+      <c r="G45" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H45" s="54" t="s">
+      <c r="H45" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="24" customHeight="1">
-      <c r="A46" s="69">
+      <c r="A46" s="75">
         <v>44</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="D46" s="67" t="s">
+      <c r="D46" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="65">
+      <c r="F46" s="71">
         <v>85000</v>
       </c>
-      <c r="G46" s="64" t="s">
+      <c r="G46" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H46" s="54" t="s">
+      <c r="H46" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="24" customHeight="1">
-      <c r="A47" s="69">
+      <c r="A47" s="75">
         <v>45</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="71">
         <v>255000</v>
       </c>
-      <c r="G47" s="64" t="s">
+      <c r="G47" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="H47" s="54" t="s">
+      <c r="H47" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="24" customHeight="1">
-      <c r="A48" s="69">
+      <c r="A48" s="75">
         <v>46</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="D48" s="61" t="s">
+      <c r="D48" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="F48" s="65">
+      <c r="F48" s="71">
         <v>123900</v>
       </c>
-      <c r="G48" s="64" t="s">
+      <c r="G48" s="70" t="s">
         <v>290</v>
       </c>
-      <c r="H48" s="54" t="s">
+      <c r="H48" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="24" customHeight="1">
-      <c r="A49" s="69">
+      <c r="A49" s="75">
         <v>47</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F49" s="71">
         <v>287500</v>
       </c>
-      <c r="G49" s="64" t="s">
+      <c r="G49" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="H49" s="54" t="s">
+      <c r="H49" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="24" customHeight="1">
-      <c r="A50" s="69">
+      <c r="A50" s="75">
         <v>48</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="65">
+      <c r="F50" s="71">
         <v>258000</v>
       </c>
-      <c r="G50" s="64" t="s">
+      <c r="G50" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="H50" s="54" t="s">
+      <c r="H50" s="60" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H75">
+  <sortState ref="A5:H75">
     <sortCondition ref="B5:B75"/>
     <sortCondition ref="C5:C75"/>
   </sortState>
@@ -4815,8 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4837,29 +4823,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1"/>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
